--- a/biology/Botanique/Escalloniaceae/Escalloniaceae.xlsx
+++ b/biology/Botanique/Escalloniaceae/Escalloniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Escalloniaceae (Escalloniacées) sont une famille de plantes dicotylédones, la seule de l'ordre des Escalloniales, formée de 66 espèces réparties en six à huit genres.
 Ce sont des arbres ou des arbustes des régions tempérées à tropicales que l'on rencontre principalement en Amérique du Sud, Malaisie, Nouvelle-Zélande, Nouvelle-Calédonie et à l'île de La Réunion. Cette grande répartition  géographique tend à prouver pour cette famille botanique une origine sur l'ancien supercontinent du Gondwana avant qu'il se fracture et que les continents se dispersent.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Escallonia, donné en mémoire de José Antonio Escallón y Flórez  (1739-1819),  administrateur, médecin et botaniste espagnol qui étudia la flore  de Colombie (ex-Nouvelle-Grenade), où il découvrit la plante[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Escallonia, donné en mémoire de José Antonio Escallón y Flórez  (1739-1819),  administrateur, médecin et botaniste espagnol qui étudia la flore  de Colombie (ex-Nouvelle-Grenade), où il découvrit la plante,.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[3], cette famille n'existait pas. 
-La classification phylogénétique APG (1998)[4] et la classification phylogénétique APG II (2003)[5] situent la divergence de cette famille au niveau des Campanulidées (Euasterids IIEuasterids II).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille n'existait pas. 
+La classification phylogénétique APG (1998) et la classification phylogénétique APG II (2003) situent la divergence de cette famille au niveau des Campanulidées (Euasterids IIEuasterids II).
 Le Angiosperm Phylogeny Website 7 décembre 2006 inclut Eremosyne pectinata (autrefois dans la famille des Eremosynaceae) et Tribeles australis (autrefois dans la famille des Tribelaceae) dans cette famille.
-La classification phylogénétique APG III (2009)[6] place cette famille dans l'ordre des Escalloniales, où sont inclus les genres précédemment placés dans les familles des Eremosynaceae, Polyosmaceae et Tribelaceae, à savoir les genres Eremosyne, Polyosma et Tribeles.
+La classification phylogénétique APG III (2009) place cette famille dans l'ordre des Escalloniales, où sont inclus les genres précédemment placés dans les familles des Eremosynaceae, Polyosmaceae et Tribelaceae, à savoir les genres Eremosyne, Polyosma et Tribeles.
 			Forgesia racemosa.
 			Escallonia virgata.
 </t>
@@ -579,9 +595,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 Jul 2010)[7]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 Jul 2010)
 Anopterus
 Eremosyne (en) (anciennement dans les Eremosynaceae)
 Escallonia
@@ -590,7 +608,7 @@
 Polyosma (en) (anciennement dans les Polyosmaceae)
 Tribeles (en) (anciennement dans les Tribelaceae)
 Valdivia (en)
-Selon DELTA Angio           (12 Jul 2010)[8] :
+Selon DELTA Angio           (12 Jul 2010) :
 Anopterus
 Cuttsia (en)
 Escallonia
@@ -624,9 +642,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (12 Jul 2010)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (12 Jul 2010) :
 genre Anopterus
 Anopterus glandulosus
 Anopterus macleayanus
